--- a/_Notes/Documents.xlsx
+++ b/_Notes/Documents.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB92B41F-1A49-42AB-A509-AFF3963A50A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="قوانین" sheetId="1" r:id="rId1"/>
+    <sheet name="بهبودها" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>ردیف</t>
   </si>
@@ -36,11 +37,17 @@
     <t xml:space="preserve"> تعریف کد دسترسی های سطوح کاربران
 (حتما باید 6 کاراکتری باشد</t>
   </si>
+  <si>
+    <t>مکان هر کالایی که به انبار وارد می شود</t>
+  </si>
+  <si>
+    <t>برا ی این کار نیاز است تا مکان های انبار (هر انبار) به صورت استاندارد در برنامه تعریف شوند و جدولی شامل مکانها (که به کالا و انبار مربوطه اشاره می کند) باید ایجاد شود. ضمنا در هنگام حواله ورود کالا باید مشخص شود که کالا در چه مکانی باید قرار بگیرد</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -97,6 +104,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -107,6 +123,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -155,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +207,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +259,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,19 +495,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="36.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="93.140625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/_Notes/Documents.xlsx
+++ b/_Notes/Documents.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB92B41F-1A49-42AB-A509-AFF3963A50A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="قوانین" sheetId="1" r:id="rId1"/>
     <sheet name="بهبودها" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="امکانات" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>ردیف</t>
   </si>
@@ -43,11 +42,20 @@
   <si>
     <t>برا ی این کار نیاز است تا مکان های انبار (هر انبار) به صورت استاندارد در برنامه تعریف شوند و جدولی شامل مکانها (که به کالا و انبار مربوطه اشاره می کند) باید ایجاد شود. ضمنا در هنگام حواله ورود کالا باید مشخص شود که کالا در چه مکانی باید قرار بگیرد</t>
   </si>
+  <si>
+    <t>درخواست کالا از انبار</t>
+  </si>
+  <si>
+    <t>* هر ردیف از درخواست بنا به دسته کالایی که انتخاب می شود، نیاز به تأیید سرپرستی دارد که برای آن کالا تعریف شده است</t>
+  </si>
+  <si>
+    <t>* ردیف های هر درخواست به صورت جداگانه به سرپرست مربوطه جهت تأیید ارسال می شوند</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +121,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -174,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,26 +224,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,23 +259,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,8 +434,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -488,6 +471,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -495,10 +483,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -520,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -537,13 +525,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="36.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="112.28515625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>